--- a/Vehicle emissions data.xlsx
+++ b/Vehicle emissions data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Vehicle Classes"/>
@@ -8771,7 +8771,7 @@
   </sheetPr>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9543,7 +9543,7 @@
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9595,7 +9595,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="6">
-        <f>A3+1</f>
+        <v>1</v>
       </c>
       <c r="B4" s="6">
         <v>11</v>
@@ -9609,7 +9609,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="6">
-        <f>A4+1</f>
+        <v>2</v>
       </c>
       <c r="B5" s="6">
         <v>12</v>
@@ -9623,7 +9623,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="6">
-        <f>A5+1</f>
+        <v>3</v>
       </c>
       <c r="B6" s="6">
         <v>13</v>
@@ -9637,7 +9637,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="6">
-        <f>A6+1</f>
+        <v>4</v>
       </c>
       <c r="B7" s="6">
         <v>14</v>
@@ -9651,7 +9651,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="6">
-        <f>A7+1</f>
+        <v>5</v>
       </c>
       <c r="B8" s="7">
         <v>14.5</v>
@@ -9665,7 +9665,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="6">
-        <f>A8+1</f>
+        <v>6</v>
       </c>
       <c r="B9" s="6">
         <v>15</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="6">
-        <f>A9+1</f>
+        <v>7</v>
       </c>
       <c r="B10" s="7">
         <v>15.5</v>
@@ -9693,7 +9693,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="6">
-        <f>A10+1</f>
+        <v>8</v>
       </c>
       <c r="B11" s="6">
         <v>16</v>
@@ -9707,7 +9707,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="6">
-        <f>A11+1</f>
+        <v>9</v>
       </c>
       <c r="B12" s="6">
         <v>17</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="6">
-        <f>A12+1</f>
+        <v>10</v>
       </c>
       <c r="B13" s="6">
         <v>18</v>
@@ -9735,7 +9735,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="6">
-        <f>A13+1</f>
+        <v>11</v>
       </c>
       <c r="B14" s="6">
         <v>19</v>
@@ -9749,7 +9749,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="6">
-        <f>A14+1</f>
+        <v>12</v>
       </c>
       <c r="B15" s="6">
         <v>20</v>
@@ -9763,7 +9763,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
       <c r="A16" s="6">
-        <f>A15+1</f>
+        <v>13</v>
       </c>
       <c r="B16" s="6">
         <v>21</v>
@@ -9777,7 +9777,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
       <c r="A17" s="6">
-        <f>A16+1</f>
+        <v>14</v>
       </c>
       <c r="B17" s="6">
         <v>22</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
       <c r="A18" s="6">
-        <f>A17+1</f>
+        <v>15</v>
       </c>
       <c r="B18" s="6">
         <v>23</v>
@@ -9805,7 +9805,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="6">
-        <f>A18+1</f>
+        <v>16</v>
       </c>
       <c r="B19" s="6">
         <v>24</v>
@@ -9819,7 +9819,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="6">
-        <f>A19+1</f>
+        <v>17</v>
       </c>
       <c r="B20" s="6">
         <v>26</v>
